--- a/Code/Results/Cases/Case_8_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9224023097496854</v>
+        <v>0.8878127221874195</v>
       </c>
       <c r="C2">
-        <v>0.1832647292004452</v>
+        <v>0.2082594093761827</v>
       </c>
       <c r="D2">
-        <v>0.2265476816273519</v>
+        <v>0.238398840490234</v>
       </c>
       <c r="E2">
-        <v>0.189757253253525</v>
+        <v>0.1959812214600163</v>
       </c>
       <c r="F2">
-        <v>0.8263299828376844</v>
+        <v>0.7670545281524639</v>
       </c>
       <c r="G2">
-        <v>0.0008175951636733721</v>
+        <v>0.01112219659679764</v>
       </c>
       <c r="H2">
-        <v>0.000665978851439597</v>
+        <v>0.0002004279115792595</v>
       </c>
       <c r="I2">
-        <v>0.001371604162051288</v>
+        <v>0.000663956924668696</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3504801079912454</v>
+        <v>0.3047288110943107</v>
       </c>
       <c r="L2">
-        <v>0.2100761233477613</v>
+        <v>0.1572567996845962</v>
       </c>
       <c r="M2">
-        <v>1.050899722718299</v>
+        <v>0.07928160770935122</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2136928484939773</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.058852043551894</v>
       </c>
       <c r="P2">
-        <v>0.8674490494332066</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.820228936929368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8164266629028205</v>
+      </c>
+      <c r="S2">
+        <v>1.626862210292401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8031197840341235</v>
+        <v>0.7768826767630514</v>
       </c>
       <c r="C3">
-        <v>0.1599733362540405</v>
+        <v>0.1797548596025109</v>
       </c>
       <c r="D3">
-        <v>0.1998768461286744</v>
+        <v>0.210809153031235</v>
       </c>
       <c r="E3">
-        <v>0.1682561628330177</v>
+        <v>0.1744495901228973</v>
       </c>
       <c r="F3">
-        <v>0.7883071787013947</v>
+        <v>0.7310140844813517</v>
       </c>
       <c r="G3">
-        <v>0.0008202649334314398</v>
+        <v>0.01388155661803586</v>
       </c>
       <c r="H3">
-        <v>0.001541901845142801</v>
+        <v>0.0007019784823869557</v>
       </c>
       <c r="I3">
-        <v>0.002143559444573118</v>
+        <v>0.0009225736474629542</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3497105923920607</v>
+        <v>0.3046681946351768</v>
       </c>
       <c r="L3">
-        <v>0.1869309688274825</v>
+        <v>0.1613750709717863</v>
       </c>
       <c r="M3">
-        <v>0.9149828070179922</v>
+        <v>0.0765730341086801</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1910593696648633</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9230505684935224</v>
       </c>
       <c r="P3">
-        <v>0.89529328414649</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.77501344031505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8385979828381185</v>
+      </c>
+      <c r="S3">
+        <v>1.583587780341517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7295225420936049</v>
+        <v>0.7082179242709969</v>
       </c>
       <c r="C4">
-        <v>0.1458455196322177</v>
+        <v>0.162511439248533</v>
       </c>
       <c r="D4">
-        <v>0.1835563260081017</v>
+        <v>0.1939541162235656</v>
       </c>
       <c r="E4">
-        <v>0.1550591410426598</v>
+        <v>0.1612369850027768</v>
       </c>
       <c r="F4">
-        <v>0.7654041703884218</v>
+        <v>0.7091149174013154</v>
       </c>
       <c r="G4">
-        <v>0.0008219636920266385</v>
+        <v>0.01579460851782866</v>
       </c>
       <c r="H4">
-        <v>0.002289828017027595</v>
+        <v>0.001181301656795419</v>
       </c>
       <c r="I4">
-        <v>0.002789970601814407</v>
+        <v>0.001206923957869144</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3494316185171371</v>
+        <v>0.3047041979095546</v>
       </c>
       <c r="L4">
-        <v>0.1726921847997573</v>
+        <v>0.1639769588549242</v>
       </c>
       <c r="M4">
-        <v>0.8314588276279551</v>
+        <v>0.07539640732412423</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.177124282976564</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8395020135597804</v>
       </c>
       <c r="P4">
-        <v>0.9129791384159365</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.748513115150146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.852743567489787</v>
+      </c>
+      <c r="S4">
+        <v>1.557607145716048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6987555081865082</v>
+        <v>0.6794266369456068</v>
       </c>
       <c r="C5">
-        <v>0.1405178219710876</v>
+        <v>0.1559581195261615</v>
       </c>
       <c r="D5">
-        <v>0.1770221439651323</v>
+        <v>0.1872117942142353</v>
       </c>
       <c r="E5">
-        <v>0.1497049021616732</v>
+        <v>0.1558779248279158</v>
       </c>
       <c r="F5">
-        <v>0.7557002276549483</v>
+        <v>0.6997769085635355</v>
       </c>
       <c r="G5">
-        <v>0.0008226754619038528</v>
+        <v>0.0166326197523422</v>
       </c>
       <c r="H5">
-        <v>0.002646639755372382</v>
+        <v>0.001418828088299295</v>
       </c>
       <c r="I5">
-        <v>0.003169671000707197</v>
+        <v>0.001437179323184878</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3490518430664338</v>
+        <v>0.3044420328684723</v>
       </c>
       <c r="L5">
-        <v>0.1668592362713355</v>
+        <v>0.1649041298407639</v>
       </c>
       <c r="M5">
-        <v>0.7973701336475187</v>
+        <v>0.07496788953758582</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1714130885970704</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8053814088133038</v>
       </c>
       <c r="P5">
-        <v>0.920301682055511</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.73670921764996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8586376941613807</v>
+      </c>
+      <c r="S5">
+        <v>1.545889027628164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6928036826406583</v>
+        <v>0.6738166533464209</v>
       </c>
       <c r="C6">
-        <v>0.1401132547860584</v>
+        <v>0.1553791198129773</v>
       </c>
       <c r="D6">
-        <v>0.1760656100404958</v>
+        <v>0.1862236965253743</v>
       </c>
       <c r="E6">
-        <v>0.148845038426046</v>
+        <v>0.1550179330093329</v>
       </c>
       <c r="F6">
-        <v>0.7535122054738324</v>
+        <v>0.6976576836729294</v>
       </c>
       <c r="G6">
-        <v>0.0008227999086883174</v>
+        <v>0.01678154394712378</v>
       </c>
       <c r="H6">
-        <v>0.002710600531254159</v>
+        <v>0.001461833802203771</v>
       </c>
       <c r="I6">
-        <v>0.003333812810955905</v>
+        <v>0.001588858828659667</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3486090142009459</v>
+        <v>0.3040402813180449</v>
       </c>
       <c r="L6">
-        <v>0.1658632046779047</v>
+        <v>0.1648748408245382</v>
       </c>
       <c r="M6">
-        <v>0.791672845652414</v>
+        <v>0.07481679845443345</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1704375083134693</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7996777708894456</v>
       </c>
       <c r="P6">
-        <v>0.9214920725248454</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.733166835836485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8596248589084396</v>
+      </c>
+      <c r="S6">
+        <v>1.542398908284937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7268128589131209</v>
+        <v>0.7042986896834975</v>
       </c>
       <c r="C7">
-        <v>0.1470802979988122</v>
+        <v>0.1626847844011365</v>
       </c>
       <c r="D7">
-        <v>0.1838177568198063</v>
+        <v>0.1949206168962263</v>
       </c>
       <c r="E7">
-        <v>0.1550670925195803</v>
+        <v>0.1614052134592221</v>
       </c>
       <c r="F7">
-        <v>0.763681248770709</v>
+        <v>0.7043824810059931</v>
       </c>
       <c r="G7">
-        <v>0.0008219875400886252</v>
+        <v>0.01619801967933254</v>
       </c>
       <c r="H7">
-        <v>0.002298631477113511</v>
+        <v>0.001192778270755035</v>
       </c>
       <c r="I7">
-        <v>0.003048513529565255</v>
+        <v>0.001502503297094115</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3483824935388391</v>
+        <v>0.3025856316272595</v>
       </c>
       <c r="L7">
-        <v>0.172540047564631</v>
+        <v>0.1629359580109515</v>
       </c>
       <c r="M7">
-        <v>0.8309016676037118</v>
+        <v>0.07484513222160594</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1768293248950314</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8362883373565637</v>
       </c>
       <c r="P7">
-        <v>0.9129965682641767</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.743984917457126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8528833912507867</v>
+      </c>
+      <c r="S7">
+        <v>1.54498417633873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8782789353274438</v>
+        <v>0.8423798456250893</v>
       </c>
       <c r="C8">
-        <v>0.1769379485552776</v>
+        <v>0.1964412321125621</v>
       </c>
       <c r="D8">
-        <v>0.2178046531242472</v>
+        <v>0.2316992134162774</v>
       </c>
       <c r="E8">
-        <v>0.1824489819942841</v>
+        <v>0.189199502382067</v>
       </c>
       <c r="F8">
-        <v>0.8110209876082237</v>
+        <v>0.742464265313096</v>
       </c>
       <c r="G8">
-        <v>0.0008185212198028868</v>
+        <v>0.01396999037197233</v>
       </c>
       <c r="H8">
-        <v>0.0009263814204549803</v>
+        <v>0.0003481408311885037</v>
       </c>
       <c r="I8">
-        <v>0.001905076559905794</v>
+        <v>0.001083599692065285</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3487997525886506</v>
+        <v>0.2997259400226788</v>
       </c>
       <c r="L8">
-        <v>0.2020031036532686</v>
+        <v>0.156406097577694</v>
       </c>
       <c r="M8">
-        <v>1.003913160786027</v>
+        <v>0.07674879135086421</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2053179389121738</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.00300775156893</v>
       </c>
       <c r="P8">
-        <v>0.8768753348621416</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.798607005088058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8245386961751464</v>
+      </c>
+      <c r="S8">
+        <v>1.579220990421263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.176714153504662</v>
+        <v>1.117479538333015</v>
       </c>
       <c r="C9">
-        <v>0.2346662008526437</v>
+        <v>0.2663812235683451</v>
       </c>
       <c r="D9">
-        <v>0.2843446089296009</v>
+        <v>0.3013725651068313</v>
       </c>
       <c r="E9">
-        <v>0.236105715536624</v>
+        <v>0.2430962710422691</v>
       </c>
       <c r="F9">
-        <v>0.9104859535939198</v>
+        <v>0.8329522678850125</v>
       </c>
       <c r="G9">
-        <v>0.0008121645052957371</v>
+        <v>0.008590841556256557</v>
       </c>
       <c r="H9">
-        <v>2.164850212649228E-06</v>
+        <v>0.0001102456854289446</v>
       </c>
       <c r="I9">
-        <v>0.0007303643515035319</v>
+        <v>0.000853972916289969</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3530830918648675</v>
+        <v>0.3005584588320929</v>
       </c>
       <c r="L9">
-        <v>0.2597700351327461</v>
+        <v>0.1470065613823266</v>
       </c>
       <c r="M9">
-        <v>1.343087591249173</v>
+        <v>0.08592981822879153</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2615972977011864</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.338602106159499</v>
       </c>
       <c r="P9">
-        <v>0.8109266352087623</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.924157877529893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7729436556707299</v>
+      </c>
+      <c r="S9">
+        <v>1.688649769720143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.389125644559726</v>
+        <v>1.304737724206944</v>
       </c>
       <c r="C10">
-        <v>0.2765342694109734</v>
+        <v>0.3101508848976948</v>
       </c>
       <c r="D10">
-        <v>0.3262164067642743</v>
+        <v>0.3496285023142036</v>
       </c>
       <c r="E10">
-        <v>0.2652253668449021</v>
+        <v>0.2732198333696445</v>
       </c>
       <c r="F10">
-        <v>0.9723377899509842</v>
+        <v>0.8706500107315236</v>
       </c>
       <c r="G10">
-        <v>0.0008078688131428546</v>
+        <v>0.01359487193799325</v>
       </c>
       <c r="H10">
-        <v>0.00067147663935474</v>
+        <v>0.001013804227817161</v>
       </c>
       <c r="I10">
-        <v>0.0009900854930222636</v>
+        <v>0.001524801224287664</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3537368831808188</v>
+        <v>0.2925798240880511</v>
       </c>
       <c r="L10">
-        <v>0.287714820889704</v>
+        <v>0.1372835202605565</v>
       </c>
       <c r="M10">
-        <v>1.585512163496901</v>
+        <v>0.09139849471929296</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2875912333345667</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.561692211066571</v>
       </c>
       <c r="P10">
-        <v>0.7663312396877568</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.000390958253092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7416241785406079</v>
+      </c>
+      <c r="S10">
+        <v>1.705845773791424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.445098165099495</v>
+        <v>1.343043730494827</v>
       </c>
       <c r="C11">
-        <v>0.2772975927771881</v>
+        <v>0.2955507702019986</v>
       </c>
       <c r="D11">
-        <v>0.2820036390407523</v>
+        <v>0.3120771646932781</v>
       </c>
       <c r="E11">
-        <v>0.1948765989821979</v>
+        <v>0.203427955225699</v>
       </c>
       <c r="F11">
-        <v>0.8869523320109636</v>
+        <v>0.7570264156562061</v>
       </c>
       <c r="G11">
-        <v>0.0008067794290286812</v>
+        <v>0.04763985649831426</v>
       </c>
       <c r="H11">
-        <v>0.01916818834910927</v>
+        <v>0.01942352750259246</v>
       </c>
       <c r="I11">
-        <v>0.001635716772555362</v>
+        <v>0.002295046719095417</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.326699889289582</v>
+        <v>0.2581873159989314</v>
       </c>
       <c r="L11">
-        <v>0.1893373225875123</v>
+        <v>0.1226803344488356</v>
       </c>
       <c r="M11">
-        <v>1.634605060584448</v>
+        <v>0.08122262510966038</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1879792637151283</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.57515288556985</v>
       </c>
       <c r="P11">
-        <v>0.7558399004309209</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.848501842783264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7515170799534161</v>
+      </c>
+      <c r="S11">
+        <v>1.48026516438776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.450632481805314</v>
+        <v>1.343861967476073</v>
       </c>
       <c r="C12">
-        <v>0.2669310746932041</v>
+        <v>0.2764263591922145</v>
       </c>
       <c r="D12">
-        <v>0.2384270355787237</v>
+        <v>0.2694441051772429</v>
       </c>
       <c r="E12">
-        <v>0.1393141055466742</v>
+        <v>0.1472339041667325</v>
       </c>
       <c r="F12">
-        <v>0.8069850958563549</v>
+        <v>0.6712019365067832</v>
       </c>
       <c r="G12">
-        <v>0.000806669212556261</v>
+        <v>0.07227913245214523</v>
       </c>
       <c r="H12">
-        <v>0.05771461573418435</v>
+        <v>0.05791915533335157</v>
       </c>
       <c r="I12">
-        <v>0.001655147946464375</v>
+        <v>0.002304586732055469</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.305962154526604</v>
+        <v>0.2374126035959492</v>
       </c>
       <c r="L12">
-        <v>0.1204662522798472</v>
+        <v>0.1149398125103662</v>
       </c>
       <c r="M12">
-        <v>1.62402888857568</v>
+        <v>0.07375724064618439</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1192971385191797</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.548896304111423</v>
       </c>
       <c r="P12">
-        <v>0.7597308630363067</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.713866497965398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7699240074357832</v>
+      </c>
+      <c r="S12">
+        <v>1.329325039107104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.413973516539954</v>
+        <v>1.315778798165951</v>
       </c>
       <c r="C13">
-        <v>0.2495523359161353</v>
+        <v>0.2572545763036089</v>
       </c>
       <c r="D13">
-        <v>0.1936357247636948</v>
+        <v>0.220387122713916</v>
       </c>
       <c r="E13">
-        <v>0.09226557133533575</v>
+        <v>0.09864673828467474</v>
       </c>
       <c r="F13">
-        <v>0.7242154345959051</v>
+        <v>0.6028667493899533</v>
       </c>
       <c r="G13">
-        <v>0.0008073252650046918</v>
+        <v>0.06670988147995871</v>
       </c>
       <c r="H13">
-        <v>0.1132935328898128</v>
+        <v>0.1134601335325556</v>
       </c>
       <c r="I13">
-        <v>0.001538799032037907</v>
+        <v>0.002158887696685596</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2871854465975048</v>
+        <v>0.2252523451024224</v>
       </c>
       <c r="L13">
-        <v>0.07032658407360159</v>
+        <v>0.1111297323286191</v>
       </c>
       <c r="M13">
-        <v>1.566840306289521</v>
+        <v>0.06819410927190184</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0702152710424464</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.497161908482212</v>
       </c>
       <c r="P13">
-        <v>0.7741890744508417</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.577770036168999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7891205762680116</v>
+      </c>
+      <c r="S13">
+        <v>1.229361162443666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.368641966021357</v>
+        <v>1.282204957092688</v>
       </c>
       <c r="C14">
-        <v>0.2347172575823606</v>
+        <v>0.2439219403216839</v>
       </c>
       <c r="D14">
-        <v>0.1625354459945072</v>
+        <v>0.1845635518088784</v>
       </c>
       <c r="E14">
-        <v>0.06481346912432784</v>
+        <v>0.06994718771915842</v>
       </c>
       <c r="F14">
-        <v>0.665505200540494</v>
+        <v>0.5614713641434577</v>
       </c>
       <c r="G14">
-        <v>0.0008081305689997505</v>
+        <v>0.05027295185035641</v>
       </c>
       <c r="H14">
-        <v>0.1625250921504602</v>
+        <v>0.1626614936111253</v>
       </c>
       <c r="I14">
-        <v>0.001492887029081125</v>
+        <v>0.002088737233818527</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2748598203962977</v>
+        <v>0.2198881528531462</v>
       </c>
       <c r="L14">
-        <v>0.04657500265271608</v>
+        <v>0.1098465555008143</v>
       </c>
       <c r="M14">
-        <v>1.505938552320117</v>
+        <v>0.06499870122088858</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04735660326016777</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.448988736922502</v>
       </c>
       <c r="P14">
-        <v>0.7893996402080674</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.481985697999107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8019621257493768</v>
+      </c>
+      <c r="S14">
+        <v>1.177968070918283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.347814168673409</v>
+        <v>1.266750136175887</v>
       </c>
       <c r="C15">
-        <v>0.2301222387943938</v>
+        <v>0.2408202697478572</v>
       </c>
       <c r="D15">
-        <v>0.1544669881737519</v>
+        <v>0.1746411098537379</v>
       </c>
       <c r="E15">
-        <v>0.05871017975767856</v>
+        <v>0.06348246365077514</v>
       </c>
       <c r="F15">
-        <v>0.6498976991646614</v>
+        <v>0.5531274779553286</v>
       </c>
       <c r="G15">
-        <v>0.0008085048908660522</v>
+        <v>0.04192126970907495</v>
       </c>
       <c r="H15">
-        <v>0.1749916187852705</v>
+        <v>0.1751135656589895</v>
       </c>
       <c r="I15">
-        <v>0.001574846225635085</v>
+        <v>0.002175244785699526</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2719075393058574</v>
+        <v>0.2196611411860268</v>
       </c>
       <c r="L15">
-        <v>0.04223033710926138</v>
+        <v>0.1100474618982599</v>
       </c>
       <c r="M15">
-        <v>1.481351859242238</v>
+        <v>0.0643884733886555</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04329073761743807</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.431281838910422</v>
       </c>
       <c r="P15">
-        <v>0.7950398548916482</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.456780342416536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8046510463562626</v>
+      </c>
+      <c r="S15">
+        <v>1.171730817518934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.263254110018721</v>
+        <v>1.203204285720574</v>
       </c>
       <c r="C16">
-        <v>0.2167725034601915</v>
+        <v>0.2365385584949564</v>
       </c>
       <c r="D16">
-        <v>0.1470208562217152</v>
+        <v>0.1610069788167721</v>
       </c>
       <c r="E16">
-        <v>0.05722233256382836</v>
+        <v>0.06137672711592401</v>
       </c>
       <c r="F16">
-        <v>0.6404180921459144</v>
+        <v>0.5698781308128318</v>
       </c>
       <c r="G16">
-        <v>0.0008102066184737742</v>
+        <v>0.01400386835282497</v>
       </c>
       <c r="H16">
-        <v>0.1620782504873972</v>
+        <v>0.1621043418309398</v>
       </c>
       <c r="I16">
-        <v>0.001580131758071701</v>
+        <v>0.002085680484701591</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2747947967597923</v>
+        <v>0.2311751877334807</v>
       </c>
       <c r="L16">
-        <v>0.04196585023892929</v>
+        <v>0.1156236156391692</v>
       </c>
       <c r="M16">
-        <v>1.389862552173355</v>
+        <v>0.06634079890608646</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04375859788154912</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.37106685504304</v>
       </c>
       <c r="P16">
-        <v>0.80911883141858</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.449893081881683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7996726234252449</v>
+      </c>
+      <c r="S16">
+        <v>1.234282829273681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.222385960941153</v>
+        <v>1.170108704237919</v>
       </c>
       <c r="C17">
-        <v>0.2144292583214593</v>
+        <v>0.2389798407770627</v>
       </c>
       <c r="D17">
-        <v>0.1573451257187486</v>
+        <v>0.1693972463965991</v>
       </c>
       <c r="E17">
-        <v>0.06951776326988224</v>
+        <v>0.07373911849971648</v>
       </c>
       <c r="F17">
-        <v>0.6638583507444835</v>
+        <v>0.6025001998066131</v>
       </c>
       <c r="G17">
-        <v>0.0008110910711168726</v>
+        <v>0.008220906081899848</v>
       </c>
       <c r="H17">
-        <v>0.1242271529330452</v>
+        <v>0.1241881979242976</v>
       </c>
       <c r="I17">
-        <v>0.001643681629038163</v>
+        <v>0.002081172450911772</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2834858547995935</v>
+        <v>0.2422991782019324</v>
       </c>
       <c r="L17">
-        <v>0.05232785330884226</v>
+        <v>0.1207194872204234</v>
       </c>
       <c r="M17">
-        <v>1.351992598944946</v>
+        <v>0.06907350874258356</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05439304640820453</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.346369849727495</v>
       </c>
       <c r="P17">
-        <v>0.8120063748543451</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.495023956847945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7930619140335011</v>
+      </c>
+      <c r="S17">
+        <v>1.30387712007834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.216165086094463</v>
+        <v>1.164295831950682</v>
       </c>
       <c r="C18">
-        <v>0.2202837878116668</v>
+        <v>0.2488315081831729</v>
       </c>
       <c r="D18">
-        <v>0.1856535771677557</v>
+        <v>0.1978340266670244</v>
       </c>
       <c r="E18">
-        <v>0.100155104072666</v>
+        <v>0.1048302288863567</v>
       </c>
       <c r="F18">
-        <v>0.7210215481104854</v>
+        <v>0.6604903159779454</v>
       </c>
       <c r="G18">
-        <v>0.0008113188726347637</v>
+        <v>0.006821576499687065</v>
       </c>
       <c r="H18">
-        <v>0.0713785854630089</v>
+        <v>0.07134149512462074</v>
       </c>
       <c r="I18">
-        <v>0.001430827159880188</v>
+        <v>0.00180251740102122</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.299217367236519</v>
+        <v>0.2570224459967854</v>
       </c>
       <c r="L18">
-        <v>0.08292899510834317</v>
+        <v>0.1268593864111445</v>
       </c>
       <c r="M18">
-        <v>1.355685933382404</v>
+        <v>0.07379833426679738</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08504610958365433</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.355422031986961</v>
       </c>
       <c r="P18">
-        <v>0.8067187552258055</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.594958588907872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7821222448201084</v>
+      </c>
+      <c r="S18">
+        <v>1.40606026619858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.233753261523191</v>
+        <v>1.177736815524895</v>
       </c>
       <c r="C19">
-        <v>0.2348899229619121</v>
+        <v>0.2677236310379385</v>
       </c>
       <c r="D19">
-        <v>0.2297752166656295</v>
+        <v>0.243366652634819</v>
       </c>
       <c r="E19">
-        <v>0.1513083988911532</v>
+        <v>0.1567069627146012</v>
       </c>
       <c r="F19">
-        <v>0.8017531898172621</v>
+        <v>0.7371364965017051</v>
       </c>
       <c r="G19">
-        <v>0.0008109735931923695</v>
+        <v>0.006265355472982126</v>
       </c>
       <c r="H19">
-        <v>0.02616183405947936</v>
+        <v>0.02621118548187695</v>
       </c>
       <c r="I19">
-        <v>0.00154055471986414</v>
+        <v>0.001967035219728075</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3185841009502752</v>
+        <v>0.2733909898187328</v>
       </c>
       <c r="L19">
-        <v>0.1425245767972498</v>
+        <v>0.1332528018886201</v>
       </c>
       <c r="M19">
-        <v>1.392314716980877</v>
+        <v>0.07973485739212904</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1445118899320192</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.393256995949088</v>
       </c>
       <c r="P19">
-        <v>0.7982495428232035</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.728793743319841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7701379589518815</v>
+      </c>
+      <c r="S19">
+        <v>1.52947770129299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.325921097374334</v>
+        <v>1.253286543358996</v>
       </c>
       <c r="C20">
-        <v>0.2695447974881802</v>
+        <v>0.307182710487325</v>
       </c>
       <c r="D20">
-        <v>0.3159848542342161</v>
+        <v>0.3351173770810618</v>
       </c>
       <c r="E20">
-        <v>0.2573864085489532</v>
+        <v>0.2645274564216606</v>
       </c>
       <c r="F20">
-        <v>0.9504461250793241</v>
+        <v>0.8661275372128188</v>
       </c>
       <c r="G20">
-        <v>0.0008090197979728236</v>
+        <v>0.007227942025104461</v>
       </c>
       <c r="H20">
-        <v>0.0003908954768179207</v>
+        <v>0.0006994802442052972</v>
       </c>
       <c r="I20">
-        <v>0.00162484445010147</v>
+        <v>0.002228928802525232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.350187086973655</v>
+        <v>0.2954894777302712</v>
       </c>
       <c r="L20">
-        <v>0.2795419966756327</v>
+        <v>0.1400515944112399</v>
       </c>
       <c r="M20">
-        <v>1.521212608694839</v>
+        <v>0.09020096680537293</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2804541479282392</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.512456328415936</v>
       </c>
       <c r="P20">
-        <v>0.7780322440103937</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.965549435374044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7489577912934671</v>
+      </c>
+      <c r="S20">
+        <v>1.716093315236265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.496409693427438</v>
+        <v>1.377487333666011</v>
       </c>
       <c r="C21">
-        <v>0.3049235578361618</v>
+        <v>0.3224896129748629</v>
       </c>
       <c r="D21">
-        <v>0.3598531605799167</v>
+        <v>0.3987548648083816</v>
       </c>
       <c r="E21">
-        <v>0.296007240659776</v>
+        <v>0.3074091271286434</v>
       </c>
       <c r="F21">
-        <v>1.020265609893556</v>
+        <v>0.8593690980116122</v>
       </c>
       <c r="G21">
-        <v>0.0008056453150249635</v>
+        <v>0.0684220400905744</v>
       </c>
       <c r="H21">
-        <v>0.001162481656235448</v>
+        <v>0.001502370832112021</v>
       </c>
       <c r="I21">
-        <v>0.002015863446548138</v>
+        <v>0.002737873387648193</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3565173158222272</v>
+        <v>0.2748343025450986</v>
       </c>
       <c r="L21">
-        <v>0.3234737466138142</v>
+        <v>0.1280814766333052</v>
       </c>
       <c r="M21">
-        <v>1.718241344305284</v>
+        <v>0.08869539687751882</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.320019799995535</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.641789069947919</v>
       </c>
       <c r="P21">
-        <v>0.7439512225517948</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.062514721578736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.733984169258477</v>
+      </c>
+      <c r="S21">
+        <v>1.616218839769175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.608584345936407</v>
+        <v>1.457028841270358</v>
       </c>
       <c r="C22">
-        <v>0.3253674648443621</v>
+        <v>0.3278761606555065</v>
       </c>
       <c r="D22">
-        <v>0.3842936719505019</v>
+        <v>0.4377334430351993</v>
       </c>
       <c r="E22">
-        <v>0.3158541625680868</v>
+        <v>0.3303925872441127</v>
       </c>
       <c r="F22">
-        <v>1.061892126539561</v>
+        <v>0.8470355483408838</v>
       </c>
       <c r="G22">
-        <v>0.0008035216292941105</v>
+        <v>0.1572659286636551</v>
       </c>
       <c r="H22">
-        <v>0.001992767813504992</v>
+        <v>0.002257122716914584</v>
       </c>
       <c r="I22">
-        <v>0.002183913894739042</v>
+        <v>0.002819374991338996</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3606445923340722</v>
+        <v>0.2604614862642549</v>
       </c>
       <c r="L22">
-        <v>0.3449499491294574</v>
+        <v>0.1205968610766099</v>
       </c>
       <c r="M22">
-        <v>1.843812100826455</v>
+        <v>0.08715080774346973</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3384469172812317</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.718263221173004</v>
       </c>
       <c r="P22">
-        <v>0.7225394698030492</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.122305172480708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7289553584353001</v>
+      </c>
+      <c r="S22">
+        <v>1.539401476381443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.551535905125064</v>
+        <v>1.42084191067238</v>
       </c>
       <c r="C23">
-        <v>0.3128328656135579</v>
+        <v>0.3263618467567255</v>
       </c>
       <c r="D23">
-        <v>0.3708149843212425</v>
+        <v>0.4143524932227081</v>
       </c>
       <c r="E23">
-        <v>0.3051571724443463</v>
+        <v>0.3175281239102006</v>
       </c>
       <c r="F23">
-        <v>1.041479417908263</v>
+        <v>0.8628874546986083</v>
       </c>
       <c r="G23">
-        <v>0.0008046379318337527</v>
+        <v>0.09146496008409599</v>
       </c>
       <c r="H23">
-        <v>0.001526877559877571</v>
+        <v>0.001850238694103723</v>
       </c>
       <c r="I23">
-        <v>0.001779554038075837</v>
+        <v>0.002420056063766829</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.35961813803819</v>
+        <v>0.2715701960549524</v>
       </c>
       <c r="L23">
-        <v>0.3335705197434606</v>
+        <v>0.1256515904853206</v>
       </c>
       <c r="M23">
-        <v>1.776905777702098</v>
+        <v>0.08947292056716094</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3290638222259759</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.684880254984478</v>
       </c>
       <c r="P23">
-        <v>0.7338031424051952</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.095308998910923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7290381259743732</v>
+      </c>
+      <c r="S23">
+        <v>1.603956224795695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.33068958891306</v>
+        <v>1.257761537394316</v>
       </c>
       <c r="C24">
-        <v>0.2684191867642483</v>
+        <v>0.3064593019951189</v>
       </c>
       <c r="D24">
-        <v>0.3206644223377708</v>
+        <v>0.3398397418104935</v>
       </c>
       <c r="E24">
-        <v>0.2649256556364037</v>
+        <v>0.272128821272652</v>
       </c>
       <c r="F24">
-        <v>0.9625643030742594</v>
+        <v>0.8780557350978739</v>
       </c>
       <c r="G24">
-        <v>0.0008089770201095479</v>
+        <v>0.007004005232818855</v>
       </c>
       <c r="H24">
-        <v>0.0003043342159159135</v>
+        <v>0.0006268636000923422</v>
       </c>
       <c r="I24">
-        <v>0.001141248687880569</v>
+        <v>0.001655476909451892</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3543589311431852</v>
+        <v>0.2992381263654309</v>
       </c>
       <c r="L24">
-        <v>0.2904251449138968</v>
+        <v>0.1415068875179202</v>
       </c>
       <c r="M24">
-        <v>1.523691853000088</v>
+        <v>0.09156243560650168</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2913342146361657</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.515458668265836</v>
       </c>
       <c r="P24">
-        <v>0.7779712371422072</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.988613018497603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.747939973347691</v>
+      </c>
+      <c r="S24">
+        <v>1.738518805986246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.092021293192346</v>
+        <v>1.041284645382405</v>
       </c>
       <c r="C25">
-        <v>0.2212705404978408</v>
+        <v>0.2514504649452363</v>
       </c>
       <c r="D25">
-        <v>0.2669170930477804</v>
+        <v>0.2820643512668255</v>
       </c>
       <c r="E25">
-        <v>0.2217166343524895</v>
+        <v>0.2284122705264622</v>
       </c>
       <c r="F25">
-        <v>0.8802646632449864</v>
+        <v>0.8097623915276131</v>
       </c>
       <c r="G25">
-        <v>0.0008138579931819545</v>
+        <v>0.00876001294696982</v>
       </c>
       <c r="H25">
-        <v>4.856933346775172E-05</v>
+        <v>8.4136226856657E-06</v>
       </c>
       <c r="I25">
-        <v>0.00130956015870165</v>
+        <v>0.001296573039946125</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3498809547547843</v>
+        <v>0.300131511795005</v>
       </c>
       <c r="L25">
-        <v>0.2440129647171432</v>
+        <v>0.1494325085763961</v>
       </c>
       <c r="M25">
-        <v>1.251128434527743</v>
+        <v>0.08298458332850522</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2464662444202474</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.251603408054564</v>
       </c>
       <c r="P25">
-        <v>0.8282570542486525</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.881125825970457</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.786360523110968</v>
+      </c>
+      <c r="S25">
+        <v>1.662521045609623</v>
       </c>
     </row>
   </sheetData>
